--- a/envo/document/data/5.xlsx
+++ b/envo/document/data/5.xlsx
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
